--- a/QA/testcases/EDockets/CASE/Case_Creation.xlsx
+++ b/QA/testcases/EDockets/CASE/Case_Creation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="333">
   <si>
     <t>Step No</t>
   </si>
@@ -711,9 +711,6 @@
     <t>Attorney detail should be verified</t>
   </si>
   <si>
-    <t xml:space="preserve"> Click on Attorney text</t>
-  </si>
-  <si>
     <t>Attorney text should be clicked</t>
   </si>
   <si>
@@ -789,9 +786,6 @@
     <t>ADD_ATTORNEY_BUTTON</t>
   </si>
   <si>
-    <t xml:space="preserve"> Click on add Attorney button</t>
-  </si>
-  <si>
     <t>Add Attorney button should be clicked</t>
   </si>
   <si>
@@ -967,13 +961,76 @@
   </si>
   <si>
     <t>SplitDetails</t>
+  </si>
+  <si>
+    <t>Page should be refreshed</t>
+  </si>
+  <si>
+    <t>Click on home menu</t>
+  </si>
+  <si>
+    <t>Click on Court rule set</t>
+  </si>
+  <si>
+    <t>Court set rule must be clicked</t>
+  </si>
+  <si>
+    <t>Click on Attorney text</t>
+  </si>
+  <si>
+    <t>Click on add Attorney button</t>
+  </si>
+  <si>
+    <t>Switch to default content</t>
+  </si>
+  <si>
+    <t>Should be switched to Default content</t>
+  </si>
+  <si>
+    <t>Switch frame to Case details page</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Case details page</t>
+  </si>
+  <si>
+    <t>Switch frame to Case details Content</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Case details Content</t>
+  </si>
+  <si>
+    <t>Retrieve Client id</t>
+  </si>
+  <si>
+    <t>Client id should be retrieved</t>
+  </si>
+  <si>
+    <t>Retrieve Matter id</t>
+  </si>
+  <si>
+    <t>Matter id should be retrieved</t>
+  </si>
+  <si>
+    <t>Split the details</t>
+  </si>
+  <si>
+    <t>Details should be splitted</t>
+  </si>
+  <si>
+    <t>Check strings are matched</t>
+  </si>
+  <si>
+    <t>Strings should be matched</t>
+  </si>
+  <si>
+    <t>babu@edocketspro.com,America1*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +1050,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1017,6 +1075,19 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1053,10 +1124,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1078,8 +1153,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1449,7 +1526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1459,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1547,7 +1624,9 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="21" t="s">
+        <v>332</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>206</v>
       </c>
@@ -1584,8 +1663,12 @@
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
@@ -1622,7 +1705,7 @@
         <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>313</v>
       </c>
       <c r="G8" t="s">
         <v>117</v>
@@ -1686,7 +1769,7 @@
         <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1707,7 +1790,7 @@
         <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1955,7 +2038,7 @@
         <v>147</v>
       </c>
       <c r="F24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
         <v>149</v>
@@ -2190,7 +2273,7 @@
         <v>147</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G35" t="s">
         <v>149</v>
@@ -2464,13 +2547,13 @@
         <v>6</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" t="s">
         <v>265</v>
-      </c>
-      <c r="F49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G49" t="s">
-        <v>267</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -2587,7 +2670,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F55" t="s">
         <v>209</v>
@@ -2627,10 +2710,10 @@
       </c>
       <c r="D57" s="15"/>
       <c r="F57" t="s">
+        <v>257</v>
+      </c>
+      <c r="G57" t="s">
         <v>259</v>
-      </c>
-      <c r="G57" t="s">
-        <v>261</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -2648,10 +2731,10 @@
         <v>211</v>
       </c>
       <c r="F58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -2746,7 +2829,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F63" t="s">
         <v>209</v>
@@ -2767,10 +2850,10 @@
       </c>
       <c r="D64" s="15"/>
       <c r="F64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H64" s="2"/>
     </row>
@@ -2788,7 +2871,7 @@
         <v>182</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F65" t="s">
         <v>183</v>
@@ -2828,7 +2911,13 @@
         <v>6</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="F67" t="s">
+        <v>314</v>
+      </c>
+      <c r="G67" t="s">
+        <v>315</v>
       </c>
       <c r="H67" s="2"/>
     </row>
@@ -2886,7 +2975,13 @@
         <v>6</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="F70" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" t="s">
+        <v>315</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -3277,10 +3372,10 @@
         <v>225</v>
       </c>
       <c r="F89" t="s">
+        <v>316</v>
+      </c>
+      <c r="G89" t="s">
         <v>228</v>
-      </c>
-      <c r="G89" t="s">
-        <v>229</v>
       </c>
       <c r="H89" s="2">
         <v>83</v>
@@ -3314,10 +3409,10 @@
       </c>
       <c r="D91" s="16"/>
       <c r="F91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H91" s="9"/>
     </row>
@@ -3351,13 +3446,13 @@
         <v>31</v>
       </c>
       <c r="D93" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F93" t="s">
         <v>231</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>232</v>
-      </c>
-      <c r="G93" t="s">
-        <v>233</v>
       </c>
       <c r="H93" s="2">
         <v>83</v>
@@ -3374,13 +3469,13 @@
         <v>31</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F94" t="s">
+        <v>233</v>
+      </c>
+      <c r="G94" t="s">
         <v>234</v>
-      </c>
-      <c r="G94" t="s">
-        <v>235</v>
       </c>
       <c r="H94" s="2">
         <v>83</v>
@@ -3397,16 +3492,16 @@
         <v>6</v>
       </c>
       <c r="D95" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E95" t="s">
         <v>236</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>237</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>238</v>
-      </c>
-      <c r="G95" t="s">
-        <v>239</v>
       </c>
       <c r="H95" s="2"/>
     </row>
@@ -3440,16 +3535,16 @@
         <v>6</v>
       </c>
       <c r="D97" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E97" t="s">
         <v>240</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>241</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>242</v>
-      </c>
-      <c r="G97" t="s">
-        <v>243</v>
       </c>
       <c r="H97" s="2"/>
     </row>
@@ -3483,16 +3578,16 @@
         <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E99" t="s">
         <v>244</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>245</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>246</v>
-      </c>
-      <c r="G99" t="s">
-        <v>247</v>
       </c>
       <c r="H99" s="2"/>
     </row>
@@ -3526,13 +3621,13 @@
         <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F101" t="s">
         <v>248</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>249</v>
-      </c>
-      <c r="G101" t="s">
-        <v>250</v>
       </c>
       <c r="H101" s="2"/>
     </row>
@@ -3547,13 +3642,13 @@
         <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F102" t="s">
+        <v>250</v>
+      </c>
+      <c r="G102" t="s">
         <v>251</v>
-      </c>
-      <c r="G102" t="s">
-        <v>252</v>
       </c>
       <c r="H102" s="2"/>
     </row>
@@ -3568,13 +3663,13 @@
         <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F103" t="s">
+        <v>317</v>
+      </c>
+      <c r="G103" t="s">
         <v>253</v>
-      </c>
-      <c r="F103" t="s">
-        <v>254</v>
-      </c>
-      <c r="G103" t="s">
-        <v>255</v>
       </c>
       <c r="H103" s="2"/>
     </row>
@@ -3608,13 +3703,13 @@
         <v>31</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G105" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H105" s="2">
         <v>83</v>
@@ -3631,10 +3726,10 @@
         <v>9</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F106" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="G106" t="s">
         <v>149</v>
@@ -3649,13 +3744,13 @@
         <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F107" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G107" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3682,7 +3777,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D109" s="15"/>
       <c r="F109" t="s">
@@ -3703,13 +3798,13 @@
         <v>6</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F110" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G110" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3742,13 +3837,13 @@
         <v>9</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F112" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3781,13 +3876,13 @@
         <v>6</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F114" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G114" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3801,13 +3896,13 @@
         <v>6</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F115" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G115" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3821,13 +3916,13 @@
         <v>6</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F116" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G116" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3841,16 +3936,16 @@
         <v>6</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E117" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F117" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G117" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3883,13 +3978,13 @@
         <v>9</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F119" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G119" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3922,13 +4017,13 @@
         <v>9</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F121" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G121" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3977,13 +4072,13 @@
         <v>9</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F124" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G124" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H124" s="2"/>
     </row>
@@ -3998,13 +4093,13 @@
         <v>6</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F125" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G125" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H125" s="2"/>
     </row>
@@ -4038,13 +4133,13 @@
         <v>9</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F127" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G127" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4077,10 +4172,10 @@
       <c r="D129" s="7"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H129" s="2"/>
     </row>
@@ -4092,6 +4187,12 @@
         <v>71</v>
       </c>
       <c r="D130" s="8"/>
+      <c r="F130" t="s">
+        <v>318</v>
+      </c>
+      <c r="G130" t="s">
+        <v>319</v>
+      </c>
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="1:8">
@@ -4105,7 +4206,13 @@
         <v>31</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
+      </c>
+      <c r="F131" t="s">
+        <v>320</v>
+      </c>
+      <c r="G131" t="s">
+        <v>321</v>
       </c>
       <c r="H131" s="2">
         <v>13</v>
@@ -4122,7 +4229,13 @@
         <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+      <c r="F132" t="s">
+        <v>322</v>
+      </c>
+      <c r="G132" t="s">
+        <v>323</v>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -4137,7 +4250,13 @@
         <v>9</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="F133" t="s">
+        <v>264</v>
+      </c>
+      <c r="G133" t="s">
+        <v>265</v>
       </c>
       <c r="H133" s="2"/>
     </row>
@@ -4152,11 +4271,15 @@
         <v>9</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
+      <c r="F134" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8">
@@ -4170,7 +4293,13 @@
         <v>9</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="F135" t="s">
+        <v>326</v>
+      </c>
+      <c r="G135" t="s">
+        <v>327</v>
       </c>
       <c r="H135" s="9"/>
     </row>
@@ -4198,9 +4327,15 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D137" s="8"/>
+      <c r="F137" t="s">
+        <v>328</v>
+      </c>
+      <c r="G137" t="s">
+        <v>329</v>
+      </c>
       <c r="H137" s="9">
         <v>132</v>
       </c>
@@ -4210,9 +4345,15 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D138" s="15"/>
+      <c r="F138" t="s">
+        <v>328</v>
+      </c>
+      <c r="G138" t="s">
+        <v>329</v>
+      </c>
       <c r="H138" s="9">
         <v>133</v>
       </c>
@@ -4222,9 +4363,15 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D139" s="8"/>
+      <c r="F139" t="s">
+        <v>328</v>
+      </c>
+      <c r="G139" t="s">
+        <v>329</v>
+      </c>
       <c r="H139" s="9">
         <v>134</v>
       </c>
@@ -4238,8 +4385,12 @@
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
+      <c r="F140" t="s">
+        <v>330</v>
+      </c>
+      <c r="G140" t="s">
+        <v>331</v>
+      </c>
       <c r="H140" s="19">
         <v>13139</v>
       </c>
@@ -4252,6 +4403,12 @@
         <v>37</v>
       </c>
       <c r="D141" s="14"/>
+      <c r="F141" t="s">
+        <v>330</v>
+      </c>
+      <c r="G141" t="s">
+        <v>331</v>
+      </c>
       <c r="H141" s="20">
         <v>14140</v>
       </c>
@@ -4264,6 +4421,12 @@
         <v>37</v>
       </c>
       <c r="D142" s="14"/>
+      <c r="F142" t="s">
+        <v>330</v>
+      </c>
+      <c r="G142" t="s">
+        <v>331</v>
+      </c>
       <c r="H142" s="20">
         <v>19141</v>
       </c>
@@ -4279,11 +4442,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
